--- a/Commsights.MVC/wwwroot/Download/Excel/Andi.xlsx
+++ b/Commsights.MVC/wwwroot/Download/Excel/Andi.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Commsights\Commsights.MVC\wwwroot\Download\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="360" yWindow="255" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabulation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Tone</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -27,9 +39,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Brand</t>
-  </si>
-  <si>
     <t>Headline</t>
   </si>
   <si>
@@ -48,9 +57,6 @@
     <t>Freq</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
     <t>Article Size/ Duration</t>
   </si>
   <si>
@@ -60,20 +66,30 @@
     <t>Journalist</t>
   </si>
   <si>
-    <t>Tone</t>
+    <t>FEB 12 (1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
       <b/>
@@ -85,7 +101,7 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="14"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="163"/>
@@ -132,23 +148,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -195,7 +227,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,9 +259,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,109 +470,88 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="15" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="39.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="L5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>